--- a/data/snarks.xlsx
+++ b/data/snarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="907" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="907" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="snark10" sheetId="5" r:id="rId1"/>
@@ -14,17 +14,16 @@
     <sheet name="snark20" sheetId="4" r:id="rId5"/>
     <sheet name="snark22" sheetId="14" r:id="rId6"/>
     <sheet name="snark24" sheetId="11" r:id="rId7"/>
-    <sheet name="snark26v1" sheetId="3" r:id="rId8"/>
-    <sheet name="snark26v2" sheetId="8" r:id="rId9"/>
-    <sheet name="snark28" sheetId="19" r:id="rId10"/>
-    <sheet name="snark30" sheetId="18" r:id="rId11"/>
-    <sheet name="snark34" sheetId="9" r:id="rId12"/>
-    <sheet name="snark36" sheetId="17" r:id="rId13"/>
-    <sheet name="snark40" sheetId="12" r:id="rId14"/>
-    <sheet name="snark42" sheetId="10" r:id="rId15"/>
-    <sheet name="snark50v1" sheetId="15" r:id="rId16"/>
-    <sheet name="snark50v2" sheetId="16" r:id="rId17"/>
-    <sheet name="snark56" sheetId="13" r:id="rId18"/>
+    <sheet name="snark26" sheetId="8" r:id="rId8"/>
+    <sheet name="snark28" sheetId="19" r:id="rId9"/>
+    <sheet name="snark30" sheetId="18" r:id="rId10"/>
+    <sheet name="snark34" sheetId="9" r:id="rId11"/>
+    <sheet name="snark36" sheetId="17" r:id="rId12"/>
+    <sheet name="snark40" sheetId="12" r:id="rId13"/>
+    <sheet name="snark42" sheetId="10" r:id="rId14"/>
+    <sheet name="snark50v1" sheetId="15" r:id="rId15"/>
+    <sheet name="snark50v2" sheetId="16" r:id="rId16"/>
+    <sheet name="snark56" sheetId="13" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="snarks.in" localSheetId="1">snark12!$A$1:$C$12</definedName>
@@ -643,10 +642,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C28"/>
+      <selection sqref="A1:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -656,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -667,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -675,13 +674,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -692,18 +691,18 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -711,32 +710,32 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -744,219 +743,241 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
         <v>18</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>15</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
         <v>24</v>
-      </c>
-      <c r="C23">
-        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
         <v>24</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -971,10 +992,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C30"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -984,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -998,7 +1019,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1006,282 +1027,282 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>16</v>
-      </c>
       <c r="C5">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
         <v>21</v>
-      </c>
-      <c r="C21">
-        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
         <v>25</v>
-      </c>
-      <c r="C25">
-        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>28</v>
@@ -1289,7 +1310,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -1300,13 +1321,57 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
         <v>11</v>
       </c>
-      <c r="B30">
-        <v>26</v>
-      </c>
-      <c r="C30">
-        <v>28</v>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1321,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1334,10 +1399,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C1">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1348,7 +1413,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1356,76 +1421,76 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
       <c r="C6">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
         <v>8</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>9</v>
-      </c>
-      <c r="C9">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1433,249 +1498,249 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>32</v>
@@ -1683,24 +1748,46 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>31</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35">
         <v>32</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1715,10 +1802,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection sqref="A1:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1728,10 +1815,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1739,18 +1826,18 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -1758,35 +1845,35 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
       <c r="C6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1794,65 +1881,65 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1860,70 +1947,70 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -1934,142 +2021,142 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>29</v>
-      </c>
       <c r="C29">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B30">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B31">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <v>32</v>
@@ -2077,46 +2164,90 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>31</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>30</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
         <v>26</v>
       </c>
-      <c r="B36">
-        <v>33</v>
-      </c>
-      <c r="C36">
+      <c r="B39">
         <v>34</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2131,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C40"/>
+      <selection sqref="A1:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2144,10 +2275,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C1">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2155,21 +2286,21 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2177,54 +2308,54 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2232,65 +2363,65 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>24</v>
-      </c>
       <c r="C14">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2301,114 +2432,114 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>25</v>
@@ -2416,7 +2547,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -2427,65 +2558,65 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
       <c r="C27">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
         <v>28</v>
-      </c>
-      <c r="C28">
-        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B29">
         <v>27</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>32</v>
@@ -2493,54 +2624,54 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>31</v>
       </c>
       <c r="C33">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B34">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B36">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C36">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B37">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>37</v>
@@ -2548,21 +2679,21 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B38">
         <v>36</v>
       </c>
       <c r="C38">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C39">
         <v>39</v>
@@ -2570,13 +2701,35 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B40">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2591,89 +2744,89 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C42"/>
+      <selection sqref="A1:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C1">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2681,153 +2834,153 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
         <v>12</v>
-      </c>
-      <c r="C12">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
         <v>11</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
       <c r="C15">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>17</v>
-      </c>
       <c r="C17">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
         <v>18</v>
-      </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2835,84 +2988,84 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>29</v>
@@ -2920,145 +3073,233 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>28</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>33</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C36">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C37">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B38">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B39">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B40">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B41">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B42">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>34</v>
+      </c>
+      <c r="B44">
         <v>40</v>
+      </c>
+      <c r="C44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>36</v>
+      </c>
+      <c r="B45">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>39</v>
+      </c>
+      <c r="C46">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="C47">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>37</v>
+      </c>
+      <c r="B49">
+        <v>39</v>
+      </c>
+      <c r="C49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>23</v>
+      </c>
+      <c r="B50">
+        <v>38</v>
+      </c>
+      <c r="C50">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3083,57 +3324,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C1">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3144,125 +3385,125 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
       <c r="C7">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
       <c r="C8">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>18</v>
@@ -3270,79 +3511,79 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
       <c r="C19">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23">
         <v>24</v>
-      </c>
-      <c r="C23">
-        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3358,90 +3599,90 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B31">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3449,54 +3690,54 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C35">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B36">
+        <v>30</v>
+      </c>
+      <c r="C36">
         <v>37</v>
-      </c>
-      <c r="C36">
-        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
         <v>38</v>
       </c>
-      <c r="B37">
-        <v>39</v>
-      </c>
       <c r="C37">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38">
         <v>35</v>
       </c>
       <c r="C38">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3504,70 +3745,70 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C39">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B40">
+        <v>34</v>
+      </c>
+      <c r="C40">
         <v>45</v>
-      </c>
-      <c r="C40">
-        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B41">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C41">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B42">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C42">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C43">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B44">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C44">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B45">
         <v>46</v>
@@ -3578,57 +3819,57 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B46">
         <v>39</v>
       </c>
       <c r="C46">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B47">
         <v>44</v>
       </c>
       <c r="C47">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48">
         <v>44</v>
       </c>
-      <c r="B48">
-        <v>45</v>
-      </c>
       <c r="C48">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B49">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C49">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B50">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C50">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3642,576 +3883,6 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>3</v>
-      </c>
-      <c r="C1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>23</v>
-      </c>
-      <c r="C20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21">
-        <v>18</v>
-      </c>
-      <c r="C21">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <v>22</v>
-      </c>
-      <c r="C22">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>23</v>
-      </c>
-      <c r="C23">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>19</v>
-      </c>
-      <c r="B26">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>21</v>
-      </c>
-      <c r="B27">
-        <v>27</v>
-      </c>
-      <c r="C27">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28">
-        <v>26</v>
-      </c>
-      <c r="C28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>23</v>
-      </c>
-      <c r="B29">
-        <v>27</v>
-      </c>
-      <c r="C29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>17</v>
-      </c>
-      <c r="B30">
-        <v>31</v>
-      </c>
-      <c r="C30">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>25</v>
-      </c>
-      <c r="B31">
-        <v>28</v>
-      </c>
-      <c r="C31">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>33</v>
-      </c>
-      <c r="C32">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>33</v>
-      </c>
-      <c r="C33">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>32</v>
-      </c>
-      <c r="C34">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>31</v>
-      </c>
-      <c r="B35">
-        <v>37</v>
-      </c>
-      <c r="C35">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>29</v>
-      </c>
-      <c r="B36">
-        <v>30</v>
-      </c>
-      <c r="C36">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37">
-        <v>38</v>
-      </c>
-      <c r="C37">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>34</v>
-      </c>
-      <c r="B38">
-        <v>35</v>
-      </c>
-      <c r="C38">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="B39">
-        <v>43</v>
-      </c>
-      <c r="C39">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>32</v>
-      </c>
-      <c r="B40">
-        <v>34</v>
-      </c>
-      <c r="C40">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>33</v>
-      </c>
-      <c r="B41">
-        <v>37</v>
-      </c>
-      <c r="C41">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>36</v>
-      </c>
-      <c r="B42">
-        <v>42</v>
-      </c>
-      <c r="C42">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>43</v>
-      </c>
-      <c r="C43">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>38</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>41</v>
-      </c>
-      <c r="B45">
-        <v>46</v>
-      </c>
-      <c r="C45">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>38</v>
-      </c>
-      <c r="B46">
-        <v>39</v>
-      </c>
-      <c r="C46">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>43</v>
-      </c>
-      <c r="B47">
-        <v>44</v>
-      </c>
-      <c r="C47">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>26</v>
-      </c>
-      <c r="B48">
-        <v>44</v>
-      </c>
-      <c r="C48">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>42</v>
-      </c>
-      <c r="B49">
-        <v>47</v>
-      </c>
-      <c r="C49">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>20</v>
-      </c>
-      <c r="B50">
-        <v>46</v>
-      </c>
-      <c r="C50">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
@@ -4851,7 +4522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -6229,21 +5900,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
         <v>3</v>
-      </c>
-      <c r="C1">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6251,18 +5925,18 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>5</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -6273,21 +5947,21 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6295,59 +5969,59 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -6358,35 +6032,35 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6394,10 +6068,10 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6405,40 +6079,40 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>24</v>
@@ -6446,54 +6120,54 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>25</v>
@@ -6504,21 +6178,21 @@
         <v>18</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="C26">
         <v>23</v>
-      </c>
-      <c r="C26">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -6533,16 +6207,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection sqref="A1:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
@@ -6593,10 +6264,10 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6604,10 +6275,10 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6615,10 +6286,10 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6626,10 +6297,10 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6637,10 +6308,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6648,106 +6319,106 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>24</v>
@@ -6755,10 +6426,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>25</v>
@@ -6766,46 +6437,46 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6816,7 +6487,7 @@
         <v>22</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6824,10 +6495,32 @@
         <v>19</v>
       </c>
       <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
         <v>21</v>
       </c>
-      <c r="C26">
+      <c r="B28">
         <v>23</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
